--- a/medicine/Psychotrope/Berliner-Kindl-Schultheiss-Brauerei/Berliner-Kindl-Schultheiss-Brauerei.xlsx
+++ b/medicine/Psychotrope/Berliner-Kindl-Schultheiss-Brauerei/Berliner-Kindl-Schultheiss-Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Berliner-Kindl-Schultheiss-Brauerei est une brasserie à Berlin-Alt-Hohenschönhausen, qui produit les marques Berliner Pilsner, Berliner Kindl, Engelhardt, Schultheiss et Berliner Bürgerbräu.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Schultheiss est fondée en 1842 et acquise en 1864 par Adolf Roesicke, qui avait auparavant travaillé dans l'industrie du textile. Il confie à son fils Richard Roesicke la direction de la brasserie qui, suivant la Gründerzeit, en fait une brasserie industrielle à grande échelle. Pour obtenir des capitaux supplémentaires pour l'expansion, la brasserie est convertie en 1871 en une société par actions.
 En 1891, la Schultheiss-Brauerei fusionne avec l'un de ses principaux concurrents, la Tivoli-Brauerei. Cependant, la nouvelle société continue sous le nom de Schultheiss, les installations de production de Tivoli à Kreuzberg sont dénommées Division II.
